--- a/raw_data/20200818_saline/20200818_Sensor2_Test_56.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_56.xlsx
@@ -1,736 +1,1152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A16567-BC87-464A-BDBD-B24066117450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>49873.538507</v>
+        <v>49873.538506999997</v>
       </c>
       <c r="B2" s="1">
         <v>13.853761</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.200000</v>
+        <v>1245.2</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.237000</v>
+        <v>-303.23700000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>49883.586626</v>
+        <v>49883.586625999997</v>
       </c>
       <c r="G2" s="1">
-        <v>13.856552</v>
+        <v>13.856552000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.460000</v>
+        <v>1270.46</v>
       </c>
       <c r="I2" s="1">
-        <v>-261.494000</v>
+        <v>-261.49400000000003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>49894.024767</v>
+        <v>49894.024767000003</v>
       </c>
       <c r="L2" s="1">
         <v>13.859451</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.650000</v>
+        <v>1304.6500000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.541000</v>
+        <v>-200.541</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>49904.242353</v>
+        <v>49904.242353000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.862290</v>
+        <v>13.86229</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.310000</v>
+        <v>1316.31</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.956000</v>
+        <v>-182.95599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>49914.797752</v>
+        <v>49914.797751999999</v>
       </c>
       <c r="V2" s="1">
-        <v>13.865222</v>
+        <v>13.865221999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.320000</v>
+        <v>1329.32</v>
       </c>
       <c r="X2" s="1">
-        <v>-169.683000</v>
+        <v>-169.68299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>49925.284631</v>
+        <v>49925.284631000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.868135</v>
+        <v>13.868135000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.370000</v>
+        <v>1346.37</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.819000</v>
+        <v>-167.81899999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>49935.835559</v>
+        <v>49935.835558999999</v>
       </c>
       <c r="AF2" s="1">
         <v>13.871065</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.330000</v>
+        <v>1359.33</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.805000</v>
+        <v>-177.80500000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>49946.269867</v>
+        <v>49946.269867000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.873964</v>
+        <v>13.873964000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.831000</v>
+        <v>-207.83099999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>49956.859452</v>
+        <v>49956.859451999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.876905</v>
+        <v>13.876905000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.617000</v>
+        <v>-251.61699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>49967.861718</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.879962</v>
+        <v>13.879962000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.250000</v>
+        <v>1426.25</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.433000</v>
+        <v>-311.43299999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>49979.240927</v>
+        <v>49979.240926999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.883122</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.640000</v>
+        <v>1445.64</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.393000</v>
+        <v>-363.39299999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>49990.158407</v>
+        <v>49990.158407000003</v>
       </c>
       <c r="BE2" s="1">
         <v>13.886155</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.180000</v>
+        <v>1531.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.458000</v>
+        <v>-610.45799999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>50001.164126</v>
+        <v>50001.164126000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.889212</v>
+        <v>13.889212000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1685.880000</v>
+        <v>1685.88</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1052.760000</v>
+        <v>-1052.76</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>50011.932739</v>
+        <v>50011.932739000003</v>
       </c>
       <c r="BO2" s="1">
         <v>13.892204</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.760000</v>
+        <v>1980.76</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1817.880000</v>
+        <v>-1817.88</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>50022.312531</v>
+        <v>50022.312531000003</v>
       </c>
       <c r="BT2" s="1">
         <v>13.895087</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.540000</v>
+        <v>2366.54</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2698.310000</v>
+        <v>-2698.31</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>50033.357926</v>
+        <v>50033.357925999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.898155</v>
+        <v>13.898154999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.860000</v>
+        <v>2850.86</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3662.480000</v>
+        <v>-3662.48</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>50044.055147</v>
+        <v>50044.055146999999</v>
       </c>
       <c r="CD2" s="1">
         <v>13.901126</v>
       </c>
       <c r="CE2" s="1">
-        <v>4267.950000</v>
+        <v>4267.95</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5965.000000</v>
+        <v>-5965</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>49873.898105</v>
       </c>
@@ -738,238 +1154,238 @@
         <v>13.853861</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.039000</v>
+        <v>-303.03899999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>49883.931678</v>
+        <v>49883.931678000001</v>
       </c>
       <c r="G3" s="1">
         <v>13.856648</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.970000</v>
+        <v>1269.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.819000</v>
+        <v>-260.81900000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>49894.450334</v>
+        <v>49894.450334000001</v>
       </c>
       <c r="L3" s="1">
-        <v>13.859570</v>
+        <v>13.85957</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.650000</v>
+        <v>1304.6500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.551000</v>
+        <v>-200.55099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>49904.673386</v>
+        <v>49904.673386000002</v>
       </c>
       <c r="Q3" s="1">
         <v>13.862409</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.330000</v>
+        <v>1316.33</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.861000</v>
+        <v>-182.86099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>49915.196043</v>
+        <v>49915.196043000004</v>
       </c>
       <c r="V3" s="1">
         <v>13.865332</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.380000</v>
+        <v>1329.38</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.841000</v>
+        <v>-169.84100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>49925.654181</v>
+        <v>49925.654180999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.868237</v>
+        <v>13.868237000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.988000</v>
+        <v>-167.988</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>49936.204056</v>
+        <v>49936.204056000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.871168</v>
+        <v>13.871168000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.440000</v>
+        <v>1359.44</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.717000</v>
+        <v>-177.71700000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49946.656778</v>
+        <v>49946.656777999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.874071</v>
+        <v>13.874071000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1379.960000</v>
+        <v>1379.96</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.819000</v>
+        <v>-207.81899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>49957.610394</v>
+        <v>49957.610394000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.877114</v>
+        <v>13.877114000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.610000</v>
+        <v>1401.61</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.613000</v>
+        <v>-251.613</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>49968.602732</v>
+        <v>49968.602731999999</v>
       </c>
       <c r="AU3" s="1">
         <v>13.880167</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.250000</v>
+        <v>1426.25</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.458000</v>
+        <v>-311.45800000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>49979.601054</v>
+        <v>49979.601053999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.883223</v>
+        <v>13.883222999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.370000</v>
+        <v>-363.37</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>49990.521935</v>
+        <v>49990.521934999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.886256</v>
+        <v>13.886255999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.170000</v>
+        <v>1531.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.471000</v>
+        <v>-610.471</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>50001.554481</v>
+        <v>50001.554480999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.889321</v>
+        <v>13.889321000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1685.870000</v>
+        <v>1685.87</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1052.790000</v>
+        <v>-1052.79</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>50012.668338</v>
+        <v>50012.668338000003</v>
       </c>
       <c r="BO3" s="1">
         <v>13.892408</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.560000</v>
+        <v>1980.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1817.910000</v>
+        <v>-1817.91</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>50023.102644</v>
+        <v>50023.102643999999</v>
       </c>
       <c r="BT3" s="1">
         <v>13.895306</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.650000</v>
+        <v>2366.65</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2698.450000</v>
+        <v>-2698.45</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>50033.536519</v>
+        <v>50033.536519000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.898205</v>
+        <v>13.898205000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.000000</v>
+        <v>2851</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3662.510000</v>
+        <v>-3662.51</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>50044.622292</v>
@@ -978,273 +1394,273 @@
         <v>13.901284</v>
       </c>
       <c r="CE3" s="1">
-        <v>4269.280000</v>
+        <v>4269.28</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5967.370000</v>
+        <v>-5967.37</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>49874.331114</v>
+        <v>49874.331114000001</v>
       </c>
       <c r="B4" s="1">
-        <v>13.853981</v>
+        <v>13.853980999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.300000</v>
+        <v>1245.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.934000</v>
+        <v>-302.93400000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>49884.361724</v>
+        <v>49884.361724000002</v>
       </c>
       <c r="G4" s="1">
         <v>13.856767</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.020000</v>
+        <v>1270.02</v>
       </c>
       <c r="I4" s="1">
-        <v>-261.793000</v>
+        <v>-261.79300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>49894.789630</v>
+        <v>49894.789629999999</v>
       </c>
       <c r="L4" s="1">
         <v>13.859664</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.740000</v>
+        <v>1304.74</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.728000</v>
+        <v>-200.72800000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>49905.001297</v>
+        <v>49905.001297000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.862500</v>
+        <v>13.862500000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.370000</v>
+        <v>1316.37</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.915000</v>
+        <v>-182.91499999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>49915.543698</v>
+        <v>49915.543698000001</v>
       </c>
       <c r="V4" s="1">
-        <v>13.865429</v>
+        <v>13.865429000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.340000</v>
+        <v>1329.34</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.836000</v>
+        <v>-169.83600000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>49926.003332</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.868334</v>
+        <v>13.868334000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.480000</v>
+        <v>1346.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.994000</v>
+        <v>-167.994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>49936.547319</v>
+        <v>49936.547318999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.871263</v>
+        <v>13.871263000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.842000</v>
+        <v>-177.84200000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49947.351673</v>
+        <v>49947.351672999997</v>
       </c>
       <c r="AK4" s="1">
         <v>13.874264</v>
       </c>
       <c r="AL4" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.798000</v>
+        <v>-207.798</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>49957.968506</v>
+        <v>49957.968505999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.877213</v>
+        <v>13.877212999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.630000</v>
+        <v>1401.63</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.573000</v>
+        <v>-251.57300000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>49968.971292</v>
+        <v>49968.971292000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.880270</v>
+        <v>13.880269999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.434000</v>
+        <v>-311.43400000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>49979.960623</v>
+        <v>49979.960622999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.883322</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.374000</v>
+        <v>-363.37400000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>49991.194510</v>
+        <v>49991.194510000001</v>
       </c>
       <c r="BE4" s="1">
         <v>13.886443</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.170000</v>
+        <v>1531.17</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.499000</v>
+        <v>-610.49900000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>50002.240945</v>
+        <v>50002.240944999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.889511</v>
+        <v>13.889511000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1685.830000</v>
+        <v>1685.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1052.810000</v>
+        <v>-1052.81</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>50012.780403</v>
+        <v>50012.780402999997</v>
       </c>
       <c r="BO4" s="1">
         <v>13.892439</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.370000</v>
+        <v>1980.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1818.220000</v>
+        <v>-1818.22</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>50023.218709</v>
+        <v>50023.218709000001</v>
       </c>
       <c r="BT4" s="1">
         <v>13.895339</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.310000</v>
+        <v>2366.31</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2698.450000</v>
+        <v>-2698.45</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>50033.986390</v>
+        <v>50033.986389999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.898330</v>
+        <v>13.89833</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.390000</v>
+        <v>2850.39</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3662.270000</v>
+        <v>-3662.27</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>50045.140924</v>
+        <v>50045.140923999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.901428</v>
+        <v>13.901427999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4256.820000</v>
+        <v>4256.82</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5974.170000</v>
+        <v>-5974.17</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>49874.593534</v>
       </c>
@@ -1252,73 +1668,73 @@
         <v>13.854054</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.320000</v>
+        <v>1245.32</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.839000</v>
+        <v>-302.839</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>49884.621611</v>
+        <v>49884.621611000002</v>
       </c>
       <c r="G5" s="1">
-        <v>13.856839</v>
+        <v>13.856839000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I5" s="1">
-        <v>-262.121000</v>
+        <v>-262.12099999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>49895.139774</v>
+        <v>49895.139774000003</v>
       </c>
       <c r="L5" s="1">
-        <v>13.859761</v>
+        <v>13.859761000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.490000</v>
+        <v>1304.49</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.856000</v>
+        <v>-200.85599999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>49905.351907</v>
+        <v>49905.351906999997</v>
       </c>
       <c r="Q5" s="1">
         <v>13.862598</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.450000</v>
+        <v>1316.45</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.968000</v>
+        <v>-182.96799999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>49915.886435</v>
       </c>
       <c r="V5" s="1">
-        <v>13.865524</v>
+        <v>13.865524000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.190000</v>
+        <v>1329.19</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.844000</v>
+        <v>-169.84399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>49926.699365</v>
@@ -1327,43 +1743,43 @@
         <v>13.868528</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.844000</v>
+        <v>-167.84399999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>49937.236763</v>
+        <v>49937.236763000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.871455</v>
+        <v>13.871454999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.360000</v>
+        <v>1359.36</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.804000</v>
+        <v>-177.804</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49947.703346</v>
+        <v>49947.703346000002</v>
       </c>
       <c r="AK5" s="1">
         <v>13.874362</v>
       </c>
       <c r="AL5" s="1">
-        <v>1379.920000</v>
+        <v>1379.92</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.800000</v>
+        <v>-207.8</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>49958.329867</v>
@@ -1372,255 +1788,255 @@
         <v>13.877314</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.610000</v>
+        <v>1401.61</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.630000</v>
+        <v>-251.63</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>49969.335359</v>
+        <v>49969.335358999997</v>
       </c>
       <c r="AU5" s="1">
         <v>13.880371</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.200000</v>
+        <v>1426.2</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.418000</v>
+        <v>-311.41800000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>49980.627244</v>
+        <v>49980.627244000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.883508</v>
+        <v>13.883508000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.369000</v>
+        <v>-363.36900000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>49991.628510</v>
+        <v>49991.628510000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.886563</v>
+        <v>13.886563000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.528000</v>
+        <v>-610.52800000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>50002.710163</v>
+        <v>50002.710163000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>13.889642</v>
       </c>
       <c r="BK5" s="1">
-        <v>1685.840000</v>
+        <v>1685.84</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1052.760000</v>
+        <v>-1052.76</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>50013.201505</v>
+        <v>50013.201504999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.892556</v>
+        <v>13.892556000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.460000</v>
+        <v>1980.46</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1818.150000</v>
+        <v>-1818.15</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>50023.644275</v>
+        <v>50023.644274999999</v>
       </c>
       <c r="BT5" s="1">
         <v>13.895457</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.120000</v>
+        <v>2366.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2698.220000</v>
+        <v>-2698.22</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>50034.444661</v>
+        <v>50034.444661000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.898457</v>
+        <v>13.898457000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.440000</v>
+        <v>2850.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3662.330000</v>
+        <v>-3662.33</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>50045.659206</v>
+        <v>50045.659205999997</v>
       </c>
       <c r="CD5" s="1">
         <v>13.901572</v>
       </c>
       <c r="CE5" s="1">
-        <v>4257.050000</v>
+        <v>4257.05</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5968.300000</v>
+        <v>-5968.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>49874.937287</v>
+        <v>49874.937287000001</v>
       </c>
       <c r="B6" s="1">
         <v>13.854149</v>
       </c>
       <c r="C6" s="1">
-        <v>1245.540000</v>
+        <v>1245.54</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.138000</v>
+        <v>-303.13799999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>49884.966828</v>
+        <v>49884.966827999997</v>
       </c>
       <c r="G6" s="1">
         <v>13.856935</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.555000</v>
+        <v>-261.55500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>49895.483532</v>
+        <v>49895.483531999998</v>
       </c>
       <c r="L6" s="1">
         <v>13.859857</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.730000</v>
+        <v>1304.73</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.779000</v>
+        <v>-200.779</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>49905.967935</v>
+        <v>49905.967935000001</v>
       </c>
       <c r="Q6" s="1">
         <v>13.862769</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.420000</v>
+        <v>1316.42</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.000000</v>
+        <v>-183</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>49916.571937</v>
+        <v>49916.571937000001</v>
       </c>
       <c r="V6" s="1">
-        <v>13.865714</v>
+        <v>13.865714000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.390000</v>
+        <v>1329.39</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.516000</v>
+        <v>-169.51599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>49927.047944</v>
+        <v>49927.047943999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.868624</v>
+        <v>13.868624000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.360000</v>
+        <v>1346.36</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.970000</v>
+        <v>-167.97</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>49937.583925</v>
+        <v>49937.583924999999</v>
       </c>
       <c r="AF6" s="1">
         <v>13.871551</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.270000</v>
+        <v>1359.27</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.837000</v>
+        <v>-177.83699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49948.051000</v>
+        <v>49948.050999999999</v>
       </c>
       <c r="AK6" s="1">
         <v>13.874459</v>
       </c>
       <c r="AL6" s="1">
-        <v>1379.960000</v>
+        <v>1379.96</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.805000</v>
+        <v>-207.80500000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>49958.996539</v>
@@ -1629,452 +2045,452 @@
         <v>13.877499</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.617000</v>
+        <v>-251.61699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>49970.013354</v>
+        <v>49970.013354000002</v>
       </c>
       <c r="AU6" s="1">
         <v>13.880559</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.230000</v>
+        <v>1426.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.432000</v>
+        <v>-311.43200000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>49981.065740</v>
+        <v>49981.065739999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.883629</v>
+        <v>13.883629000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.378000</v>
+        <v>-363.37799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>49991.992079</v>
+        <v>49991.992079000003</v>
       </c>
       <c r="BE6" s="1">
         <v>13.886664</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.516000</v>
+        <v>-610.51599999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>50003.085598</v>
+        <v>50003.085597999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.889746</v>
+        <v>13.889746000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1685.810000</v>
+        <v>1685.81</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1052.790000</v>
+        <v>-1052.79</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>50013.600784</v>
+        <v>50013.600784000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.892667</v>
+        <v>13.892666999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.350000</v>
+        <v>1980.35</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1818.080000</v>
+        <v>-1818.08</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>50024.048515</v>
+        <v>50024.048515000002</v>
       </c>
       <c r="BT6" s="1">
         <v>13.895569</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.510000</v>
+        <v>2366.5100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2698.390000</v>
+        <v>-2698.39</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>50034.891558</v>
+        <v>50034.891558000003</v>
       </c>
       <c r="BY6" s="1">
         <v>13.898581</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2849.960000</v>
+        <v>2849.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3662.700000</v>
+        <v>-3662.7</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>50046.208774</v>
+        <v>50046.208773999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.901725</v>
+        <v>13.901725000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4269.670000</v>
+        <v>4269.67</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5968.290000</v>
+        <v>-5968.29</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>49875.278503</v>
+        <v>49875.278503000001</v>
       </c>
       <c r="B7" s="1">
         <v>13.854244</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-302.611000</v>
+        <v>-302.61099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>49885.311052</v>
+        <v>49885.311051999997</v>
       </c>
       <c r="G7" s="1">
-        <v>13.857031</v>
+        <v>13.857030999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.020000</v>
+        <v>1270.02</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.847000</v>
+        <v>-261.84699999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>49896.177901</v>
+        <v>49896.177901000003</v>
       </c>
       <c r="L7" s="1">
         <v>13.860049</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.618000</v>
+        <v>-200.61799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>49906.397999</v>
+        <v>49906.397999000001</v>
       </c>
       <c r="Q7" s="1">
         <v>13.862888</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.310000</v>
+        <v>1316.31</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.958000</v>
+        <v>-182.958</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>49916.918148</v>
+        <v>49916.918147999997</v>
       </c>
       <c r="V7" s="1">
-        <v>13.865811</v>
+        <v>13.865811000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.460000</v>
+        <v>1329.46</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.700000</v>
+        <v>-169.7</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>49927.396629</v>
+        <v>49927.396629000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.868721</v>
+        <v>13.868721000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.909000</v>
+        <v>-167.90899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>49937.925175</v>
+        <v>49937.925174999997</v>
       </c>
       <c r="AF7" s="1">
         <v>13.871646</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.648000</v>
+        <v>-177.648</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>49948.696791</v>
+        <v>49948.696791000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.874638</v>
+        <v>13.874637999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1379.910000</v>
+        <v>1379.91</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.803000</v>
+        <v>-207.803</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>49959.437656</v>
+        <v>49959.437656000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.877622</v>
+        <v>13.877622000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.620000</v>
+        <v>1401.62</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.659000</v>
+        <v>-251.65899999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>49970.429498</v>
+        <v>49970.429497999998</v>
       </c>
       <c r="AU7" s="1">
         <v>13.880675</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.459000</v>
+        <v>-311.459</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>49981.424811</v>
+        <v>49981.424810999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.883729</v>
+        <v>13.883729000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.356000</v>
+        <v>-363.35599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>49992.350221</v>
+        <v>49992.350221000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.886764</v>
+        <v>13.886763999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.503000</v>
+        <v>-610.50300000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>50003.471025</v>
+        <v>50003.471024999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.889853</v>
       </c>
       <c r="BK7" s="1">
-        <v>1685.840000</v>
+        <v>1685.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1052.810000</v>
+        <v>-1052.81</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>50014.022880</v>
+        <v>50014.022879999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>13.892784</v>
+        <v>13.892784000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.260000</v>
+        <v>1980.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1818.170000</v>
+        <v>-1818.17</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>50024.503346</v>
+        <v>50024.503345999998</v>
       </c>
       <c r="BT7" s="1">
         <v>13.895695</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.250000</v>
+        <v>2366.25</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2698.140000</v>
+        <v>-2698.14</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>50035.313190</v>
+        <v>50035.313190000001</v>
       </c>
       <c r="BY7" s="1">
         <v>13.898698</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.120000</v>
+        <v>2850.12</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3662.960000</v>
+        <v>-3662.96</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>50046.739988</v>
+        <v>50046.739988000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.901872</v>
+        <v>13.901871999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4257.110000</v>
+        <v>4257.1099999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5973.830000</v>
+        <v>-5973.83</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>49875.960009</v>
+        <v>49875.960009000002</v>
       </c>
       <c r="B8" s="1">
         <v>13.854433</v>
       </c>
       <c r="C8" s="1">
-        <v>1245.460000</v>
+        <v>1245.46</v>
       </c>
       <c r="D8" s="1">
-        <v>-302.901000</v>
+        <v>-302.90100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>49886.002985</v>
+        <v>49886.002984999999</v>
       </c>
       <c r="G8" s="1">
-        <v>13.857223</v>
+        <v>13.857222999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.070000</v>
+        <v>1270.07</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.158000</v>
+        <v>-262.15800000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>49896.523613</v>
+        <v>49896.523612999998</v>
       </c>
       <c r="L8" s="1">
-        <v>13.860145</v>
+        <v>13.860144999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.950000</v>
+        <v>1304.95</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.535000</v>
+        <v>-200.535</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>49906.747683</v>
+        <v>49906.747683000001</v>
       </c>
       <c r="Q8" s="1">
         <v>13.862985</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.290000</v>
+        <v>1316.29</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.882000</v>
+        <v>-182.88200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>49917.259391</v>
@@ -2083,148 +2499,148 @@
         <v>13.865905</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.310000</v>
+        <v>1329.31</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.700000</v>
+        <v>-169.7</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>49928.060282</v>
+        <v>49928.060281999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.868906</v>
+        <v>13.868906000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.560000</v>
+        <v>1346.56</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.739000</v>
+        <v>-167.739</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>49938.569476</v>
+        <v>49938.569475999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.871825</v>
+        <v>13.871824999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.290000</v>
+        <v>1359.29</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.819000</v>
+        <v>-177.81899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>49949.097302</v>
+        <v>49949.097302000002</v>
       </c>
       <c r="AK8" s="1">
         <v>13.874749</v>
       </c>
       <c r="AL8" s="1">
-        <v>1379.940000</v>
+        <v>1379.94</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.802000</v>
+        <v>-207.80199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>49959.799767</v>
+        <v>49959.799766999997</v>
       </c>
       <c r="AP8" s="1">
         <v>13.877722</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.609000</v>
+        <v>-251.60900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>49970.795331</v>
+        <v>49970.795331000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.880776</v>
+        <v>13.880775999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.408000</v>
+        <v>-311.40800000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>49981.785403</v>
+        <v>49981.785403000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.883829</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.630000</v>
+        <v>1445.63</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.347000</v>
+        <v>-363.34699999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>49992.768844</v>
+        <v>49992.768843999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.886880</v>
+        <v>13.88688</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.487000</v>
+        <v>-610.48699999999997</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>50003.882174</v>
+        <v>50003.882173999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.889967</v>
       </c>
       <c r="BK8" s="1">
-        <v>1685.830000</v>
+        <v>1685.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1052.780000</v>
+        <v>-1052.78</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>50014.419185</v>
+        <v>50014.419184999999</v>
       </c>
       <c r="BO8" s="1">
         <v>13.892894</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.270000</v>
+        <v>1980.27</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1818.150000</v>
+        <v>-1818.15</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>50024.914074</v>
@@ -2233,46 +2649,46 @@
         <v>13.895809</v>
       </c>
       <c r="BU8" s="1">
-        <v>2366.550000</v>
+        <v>2366.5500000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2698.200000</v>
+        <v>-2698.2</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>50035.735747</v>
+        <v>50035.735746999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.898815</v>
+        <v>13.898815000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.660000</v>
+        <v>2850.66</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3662.990000</v>
+        <v>-3662.99</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>50047.258835</v>
+        <v>50047.258835000001</v>
       </c>
       <c r="CD8" s="1">
         <v>13.902016</v>
       </c>
       <c r="CE8" s="1">
-        <v>4264.570000</v>
+        <v>4264.57</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5986.370000</v>
+        <v>-5986.37</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>49876.301754</v>
       </c>
@@ -2280,58 +2696,58 @@
         <v>13.854528</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.139000</v>
+        <v>-303.13900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>49886.345737</v>
+        <v>49886.345737000003</v>
       </c>
       <c r="G9" s="1">
-        <v>13.857318</v>
+        <v>13.857317999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="I9" s="1">
-        <v>-261.604000</v>
+        <v>-261.60399999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>49896.865850</v>
+        <v>49896.865850000002</v>
       </c>
       <c r="L9" s="1">
         <v>13.860241</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.570000</v>
+        <v>1304.57</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.481000</v>
+        <v>-200.48099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>49907.413277</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.863170</v>
+        <v>13.86317</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.390000</v>
+        <v>1316.39</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.865000</v>
+        <v>-182.86500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>49917.912096</v>
@@ -2340,390 +2756,390 @@
         <v>13.866087</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.370000</v>
+        <v>1329.37</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.903000</v>
+        <v>-169.90299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>49928.441205</v>
+        <v>49928.441205000003</v>
       </c>
       <c r="AA9" s="1">
         <v>13.869011</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.971000</v>
+        <v>-167.971</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>49939.069971</v>
+        <v>49939.069970999997</v>
       </c>
       <c r="AF9" s="1">
         <v>13.871964</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.350000</v>
+        <v>1359.35</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.950000</v>
+        <v>-177.95</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>49949.444759</v>
+        <v>49949.444758999998</v>
       </c>
       <c r="AK9" s="1">
         <v>13.874846</v>
       </c>
       <c r="AL9" s="1">
-        <v>1379.920000</v>
+        <v>1379.92</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.794000</v>
+        <v>-207.79400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>49960.160359</v>
+        <v>49960.160359000001</v>
       </c>
       <c r="AP9" s="1">
         <v>13.877822</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.646000</v>
+        <v>-251.64599999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>49971.160106</v>
+        <v>49971.160106000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.880878</v>
+        <v>13.880877999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.190000</v>
+        <v>1426.19</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.450000</v>
+        <v>-311.45</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>49982.210474</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.883947</v>
+        <v>13.883946999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.580000</v>
+        <v>1445.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.376000</v>
+        <v>-363.37599999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>49993.075872</v>
+        <v>49993.075872000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.886966</v>
+        <v>13.886965999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.180000</v>
+        <v>1531.18</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.479000</v>
+        <v>-610.47900000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>50004.233373</v>
+        <v>50004.233373000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.890065</v>
       </c>
       <c r="BK9" s="1">
-        <v>1685.790000</v>
+        <v>1685.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1052.690000</v>
+        <v>-1052.69</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>50014.843295</v>
+        <v>50014.843294999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.893012</v>
+        <v>13.893012000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.280000</v>
+        <v>1980.28</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1818.150000</v>
+        <v>-1818.15</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>50025.328690</v>
+        <v>50025.328690000002</v>
       </c>
       <c r="BT9" s="1">
         <v>13.895925</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.470000</v>
+        <v>2366.4699999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2698.360000</v>
+        <v>-2698.36</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>50036.162308</v>
+        <v>50036.162307999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.898934</v>
+        <v>13.898934000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2850.070000</v>
+        <v>2850.07</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3662.050000</v>
+        <v>-3662.05</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>50047.776628</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.902160</v>
+        <v>13.90216</v>
       </c>
       <c r="CE9" s="1">
-        <v>4278.180000</v>
+        <v>4278.18</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5976.320000</v>
+        <v>-5976.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>49876.645982</v>
+        <v>49876.645982000002</v>
       </c>
       <c r="B10" s="1">
-        <v>13.854624</v>
+        <v>13.854623999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.570000</v>
+        <v>1245.57</v>
       </c>
       <c r="D10" s="1">
-        <v>-302.839000</v>
+        <v>-302.839</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>49886.691944</v>
+        <v>49886.691943999998</v>
       </c>
       <c r="G10" s="1">
         <v>13.857414</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.190000</v>
+        <v>1270.19</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.997000</v>
+        <v>-261.99700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>49897.519610</v>
+        <v>49897.519610000003</v>
       </c>
       <c r="L10" s="1">
         <v>13.860422</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.666000</v>
+        <v>-200.666</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>49907.793708</v>
+        <v>49907.793707999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.863276</v>
+        <v>13.863276000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.390000</v>
+        <v>1316.39</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.954000</v>
+        <v>-182.95400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>49918.289086</v>
+        <v>49918.289085999997</v>
       </c>
       <c r="V10" s="1">
-        <v>13.866191</v>
+        <v>13.866191000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.723000</v>
+        <v>-169.72300000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>49928.787378</v>
+        <v>49928.787378000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.869108</v>
+        <v>13.869108000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.420000</v>
+        <v>1346.42</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.991000</v>
+        <v>-167.99100000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>49939.300581</v>
+        <v>49939.300581000003</v>
       </c>
       <c r="AF10" s="1">
         <v>13.872028</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.270000</v>
+        <v>1359.27</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.804000</v>
+        <v>-177.804</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49949.793446</v>
+        <v>49949.793446000003</v>
       </c>
       <c r="AK10" s="1">
         <v>13.874943</v>
       </c>
       <c r="AL10" s="1">
-        <v>1379.950000</v>
+        <v>1379.95</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.788000</v>
+        <v>-207.78800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>49960.583416</v>
+        <v>49960.583416000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.877940</v>
+        <v>13.877940000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.608000</v>
+        <v>-251.608</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>49971.589641</v>
+        <v>49971.589640999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.880997</v>
+        <v>13.880997000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.451000</v>
+        <v>-311.45100000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>49982.500642</v>
+        <v>49982.500641999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.884028</v>
+        <v>13.884028000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.630000</v>
+        <v>1445.63</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.356000</v>
+        <v>-363.35599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>49993.436428</v>
+        <v>49993.436428000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.887066</v>
+        <v>13.887066000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.469000</v>
+        <v>-610.46900000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>50004.609812</v>
+        <v>50004.609812000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.890169</v>
       </c>
       <c r="BK10" s="1">
-        <v>1685.860000</v>
+        <v>1685.86</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1052.770000</v>
+        <v>-1052.77</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>50015.239599</v>
@@ -2732,332 +3148,332 @@
         <v>13.893122</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.250000</v>
+        <v>1980.25</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1818.230000</v>
+        <v>-1818.23</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>50025.757730</v>
+        <v>50025.757729999998</v>
       </c>
       <c r="BT10" s="1">
         <v>13.896044</v>
       </c>
       <c r="BU10" s="1">
-        <v>2366.590000</v>
+        <v>2366.59</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2698.000000</v>
+        <v>-2698</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>50036.580932</v>
+        <v>50036.580931999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.899050</v>
+        <v>13.899050000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2850.040000</v>
+        <v>2850.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3662.430000</v>
+        <v>-3662.43</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>50048.296436</v>
+        <v>50048.296435999997</v>
       </c>
       <c r="CD10" s="1">
         <v>13.902305</v>
       </c>
       <c r="CE10" s="1">
-        <v>4275.410000</v>
+        <v>4275.41</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5982.570000</v>
+        <v>-5982.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>49877.289285</v>
+        <v>49877.289284999999</v>
       </c>
       <c r="B11" s="1">
         <v>13.854803</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.530000</v>
+        <v>1245.53</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.000000</v>
+        <v>-303</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>49887.353084</v>
+        <v>49887.353084000002</v>
       </c>
       <c r="G11" s="1">
-        <v>13.857598</v>
+        <v>13.857597999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.850000</v>
+        <v>1270.8499999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.466000</v>
+        <v>-261.46600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>49897.904969</v>
+        <v>49897.904969000003</v>
       </c>
       <c r="L11" s="1">
         <v>13.860529</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.668000</v>
+        <v>-200.66800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>49908.140939</v>
+        <v>49908.140938999997</v>
       </c>
       <c r="Q11" s="1">
         <v>13.863372</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.991000</v>
+        <v>-182.99100000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>49918.633573</v>
+        <v>49918.633572999999</v>
       </c>
       <c r="V11" s="1">
         <v>13.866287</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.300000</v>
+        <v>1329.3</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.838000</v>
+        <v>-169.83799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>49929.139572</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.869205</v>
+        <v>13.869204999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.510000</v>
+        <v>1346.51</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.962000</v>
+        <v>-167.96199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>49939.883391</v>
+        <v>49939.883391000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.872190</v>
+        <v>13.87219</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.250000</v>
+        <v>1359.25</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.772000</v>
+        <v>-177.77199999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>49950.217524</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.875060</v>
+        <v>13.87506</v>
       </c>
       <c r="AL11" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.765000</v>
+        <v>-207.76499999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>49960.877544</v>
+        <v>49960.877544000003</v>
       </c>
       <c r="AP11" s="1">
         <v>13.878022</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.616000</v>
+        <v>-251.61600000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>49971.888279</v>
+        <v>49971.888278999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>13.881080</v>
+        <v>13.881080000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.445000</v>
+        <v>-311.44499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>49982.863210</v>
+        <v>49982.863210000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.884129</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.327000</v>
+        <v>-363.327</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>49993.798038</v>
+        <v>49993.798038000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.887166</v>
+        <v>13.887166000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.464000</v>
+        <v>-610.46400000000006</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>50004.984780</v>
+        <v>50004.984779999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.890274</v>
       </c>
       <c r="BK11" s="1">
-        <v>1685.770000</v>
+        <v>1685.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1052.760000</v>
+        <v>-1052.76</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>50015.661167</v>
+        <v>50015.661166999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.893239</v>
+        <v>13.893238999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.240000</v>
+        <v>1980.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1818.080000</v>
+        <v>-1818.08</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>50026.185280</v>
+        <v>50026.185279999998</v>
       </c>
       <c r="BT11" s="1">
         <v>13.896163</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.660000</v>
+        <v>2366.66</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2697.760000</v>
+        <v>-2697.76</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>50037.023047</v>
+        <v>50037.023047000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.899173</v>
+        <v>13.899172999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.170000</v>
+        <v>2850.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3663.010000</v>
+        <v>-3663.01</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>50048.846530</v>
+        <v>50048.846530000003</v>
       </c>
       <c r="CD11" s="1">
         <v>13.902457</v>
       </c>
       <c r="CE11" s="1">
-        <v>4266.560000</v>
+        <v>4266.5600000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5983.850000</v>
+        <v>-5983.85</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>49877.668196</v>
+        <v>49877.668195999999</v>
       </c>
       <c r="B12" s="1">
         <v>13.854908</v>
       </c>
       <c r="C12" s="1">
-        <v>1245.650000</v>
+        <v>1245.6500000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-302.688000</v>
+        <v>-302.68799999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>49887.725112</v>
@@ -3066,28 +3482,28 @@
         <v>13.857701</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.010000</v>
+        <v>1270.01</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.226000</v>
+        <v>-261.226</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>49898.251189</v>
+        <v>49898.251189000002</v>
       </c>
       <c r="L12" s="1">
-        <v>13.860625</v>
+        <v>13.860625000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.350000</v>
+        <v>1304.3499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.483000</v>
+        <v>-200.483</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>49908.490091</v>
@@ -3096,225 +3512,225 @@
         <v>13.863469</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.310000</v>
+        <v>1316.31</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.950000</v>
+        <v>-182.95</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>49918.977534</v>
+        <v>49918.977533999998</v>
       </c>
       <c r="V12" s="1">
-        <v>13.866383</v>
+        <v>13.866383000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.330000</v>
+        <v>1329.33</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.774000</v>
+        <v>-169.774</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>49929.550224</v>
+        <v>49929.550223999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.869320</v>
+        <v>13.86932</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.460000</v>
+        <v>1346.46</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.789000</v>
+        <v>-167.78899999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>49939.992002</v>
+        <v>49939.992001999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.872220</v>
+        <v>13.87222</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.570000</v>
+        <v>1359.57</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.865000</v>
+        <v>-177.86500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49950.508180</v>
+        <v>49950.508179999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.875141</v>
+        <v>13.875140999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1379.940000</v>
+        <v>1379.94</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.765000</v>
+        <v>-207.76499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>49961.237142</v>
+        <v>49961.237141999998</v>
       </c>
       <c r="AP12" s="1">
         <v>13.878121</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.585000</v>
+        <v>-251.58500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>49972.252295</v>
+        <v>49972.252294999998</v>
       </c>
       <c r="AU12" s="1">
         <v>13.881181</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.463000</v>
+        <v>-311.46300000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>49983.219378</v>
+        <v>49983.219378000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.884228</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.371000</v>
+        <v>-363.37099999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>49994.520682</v>
+        <v>49994.520682000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>13.887367</v>
+        <v>13.887366999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.150000</v>
+        <v>1531.15</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.463000</v>
+        <v>-610.46299999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>50005.759035</v>
+        <v>50005.759035000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.890489</v>
+        <v>13.890489000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1685.800000</v>
+        <v>1685.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1052.710000</v>
+        <v>-1052.71</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>50016.054991</v>
+        <v>50016.054990999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.893349</v>
+        <v>13.893349000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1818.030000</v>
+        <v>-1818.03</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>50026.599441</v>
+        <v>50026.599440999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.896278</v>
+        <v>13.896278000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2366.970000</v>
+        <v>2366.9699999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2697.880000</v>
+        <v>-2697.88</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>50037.445457</v>
+        <v>50037.445457000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.899290</v>
+        <v>13.899290000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.700000</v>
+        <v>2850.7</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3662.630000</v>
+        <v>-3662.63</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>50049.688432</v>
+        <v>50049.688432000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.902691</v>
+        <v>13.902691000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.690000</v>
+        <v>4275.6899999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5972.730000</v>
+        <v>-5972.73</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>49878.012916</v>
       </c>
       <c r="B13" s="1">
-        <v>13.855004</v>
+        <v>13.855003999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.142000</v>
+        <v>-303.142</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>49888.084679</v>
@@ -3323,178 +3739,178 @@
         <v>13.857801</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.598000</v>
+        <v>-261.59800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>49898.595400</v>
+        <v>49898.595399999998</v>
       </c>
       <c r="L13" s="1">
         <v>13.860721</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.780000</v>
+        <v>1304.78</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.532000</v>
+        <v>-200.53200000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>49908.914207</v>
+        <v>49908.914207000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.863587</v>
+        <v>13.863587000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.926000</v>
+        <v>-182.92599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>49919.391165</v>
+        <v>49919.391165000001</v>
       </c>
       <c r="V13" s="1">
         <v>13.866498</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.170000</v>
+        <v>1329.17</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.723000</v>
+        <v>-169.72300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>49929.834468</v>
+        <v>49929.834468000001</v>
       </c>
       <c r="AA13" s="1">
         <v>13.869398</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.019000</v>
+        <v>-168.01900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>49940.335233</v>
+        <v>49940.335232999998</v>
       </c>
       <c r="AF13" s="1">
         <v>13.872315</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.894000</v>
+        <v>-177.89400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49950.855875</v>
+        <v>49950.855875000001</v>
       </c>
       <c r="AK13" s="1">
         <v>13.875238</v>
       </c>
       <c r="AL13" s="1">
-        <v>1379.960000</v>
+        <v>1379.96</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.795000</v>
+        <v>-207.79499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>49961.599221</v>
+        <v>49961.599220999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.878222</v>
+        <v>13.878221999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.602000</v>
+        <v>-251.602</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>49972.618840</v>
+        <v>49972.618840000003</v>
       </c>
       <c r="AU13" s="1">
         <v>13.881283</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.447000</v>
+        <v>-311.447</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>49983.936589</v>
+        <v>49983.936588999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.884427</v>
+        <v>13.884427000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.406000</v>
+        <v>-363.40600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>49994.881273</v>
+        <v>49994.881272999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.887467</v>
+        <v>13.887466999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.120000</v>
+        <v>1531.12</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.454000</v>
+        <v>-610.45399999999995</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>50006.134548</v>
+        <v>50006.134548000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.890593</v>
+        <v>13.890593000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1685.760000</v>
+        <v>1685.76</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1052.710000</v>
+        <v>-1052.71</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>50016.478077</v>
@@ -3503,255 +3919,255 @@
         <v>13.893466</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.140000</v>
+        <v>1980.14</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1818.050000</v>
+        <v>-1818.05</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>50027.334014</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.896482</v>
+        <v>13.896482000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.300000</v>
+        <v>2367.3000000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2697.740000</v>
+        <v>-2697.74</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>50038.184993</v>
+        <v>50038.184993000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.899496</v>
+        <v>13.899495999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.680000</v>
+        <v>2850.68</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3662.650000</v>
+        <v>-3662.65</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>50049.927282</v>
+        <v>50049.927281999997</v>
       </c>
       <c r="CD13" s="1">
         <v>13.902758</v>
       </c>
       <c r="CE13" s="1">
-        <v>4259.040000</v>
+        <v>4259.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5966.840000</v>
+        <v>-5966.84</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>49878.355653</v>
+        <v>49878.355652999999</v>
       </c>
       <c r="B14" s="1">
-        <v>13.855099</v>
+        <v>13.855098999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.180000</v>
+        <v>1245.18</v>
       </c>
       <c r="D14" s="1">
-        <v>-302.745000</v>
+        <v>-302.745</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>49888.429398</v>
       </c>
       <c r="G14" s="1">
-        <v>13.857897</v>
+        <v>13.857896999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.220000</v>
+        <v>1270.22</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.974000</v>
+        <v>-260.97399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>49899.008072</v>
+        <v>49899.008071999997</v>
       </c>
       <c r="L14" s="1">
-        <v>13.860836</v>
+        <v>13.860836000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.640000</v>
+        <v>1304.6400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.840000</v>
+        <v>-200.84</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>49909.188986</v>
+        <v>49909.188986000001</v>
       </c>
       <c r="Q14" s="1">
         <v>13.863664</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.860000</v>
+        <v>-182.86</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>49919.692270</v>
+        <v>49919.69227</v>
       </c>
       <c r="V14" s="1">
         <v>13.866581</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.814000</v>
+        <v>-169.81399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>49930.185104</v>
+        <v>49930.185103999996</v>
       </c>
       <c r="AA14" s="1">
         <v>13.869496</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.874000</v>
+        <v>-167.874</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>49940.678465</v>
+        <v>49940.678464999997</v>
       </c>
       <c r="AF14" s="1">
         <v>13.872411</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.350000</v>
+        <v>1359.35</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.899000</v>
+        <v>-177.899</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49951.206083</v>
+        <v>49951.206082999997</v>
       </c>
       <c r="AK14" s="1">
         <v>13.875335</v>
       </c>
       <c r="AL14" s="1">
-        <v>1379.920000</v>
+        <v>1379.92</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.760000</v>
+        <v>-207.76</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>49962.327348</v>
+        <v>49962.327347999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.878424</v>
+        <v>13.878424000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.599000</v>
+        <v>-251.59899999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>49973.350934</v>
+        <v>49973.350934000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.881486</v>
+        <v>13.881486000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.450000</v>
+        <v>-311.45</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>49984.297144</v>
+        <v>49984.297143999996</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.884527</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.381000</v>
+        <v>-363.38099999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>49995.241897</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.887567</v>
+        <v>13.887567000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1531.140000</v>
+        <v>1531.14</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.477000</v>
+        <v>-610.47699999999998</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>50006.508871</v>
+        <v>50006.508870999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.890697</v>
+        <v>13.890696999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1685.740000</v>
+        <v>1685.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1052.720000</v>
+        <v>-1052.72</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>50017.172476</v>
@@ -3760,75 +4176,75 @@
         <v>13.893659</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.310000</v>
+        <v>1980.31</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1817.980000</v>
+        <v>-1817.98</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>50027.453582</v>
+        <v>50027.453582000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.896515</v>
+        <v>13.896515000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.450000</v>
+        <v>2367.4499999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2697.760000</v>
+        <v>-2697.76</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>50038.351650</v>
+        <v>50038.351649999997</v>
       </c>
       <c r="BY14" s="1">
         <v>13.899542</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.970000</v>
+        <v>2849.97</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3662.110000</v>
+        <v>-3662.11</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>50050.460987</v>
+        <v>50050.460986999999</v>
       </c>
       <c r="CD14" s="1">
         <v>13.902906</v>
       </c>
       <c r="CE14" s="1">
-        <v>4265.120000</v>
+        <v>4265.12</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5984.950000</v>
+        <v>-5984.95</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>49878.773283</v>
+        <v>49878.773283000002</v>
       </c>
       <c r="B15" s="1">
-        <v>13.855215</v>
+        <v>13.855214999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1245.820000</v>
+        <v>1245.82</v>
       </c>
       <c r="D15" s="1">
-        <v>-302.760000</v>
+        <v>-302.76</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>49889.116853</v>
@@ -3837,241 +4253,241 @@
         <v>13.858088</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.356000</v>
+        <v>-262.35599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>49899.304220</v>
+        <v>49899.304219999998</v>
       </c>
       <c r="L15" s="1">
         <v>13.860918</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.690000</v>
+        <v>1304.69</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.840000</v>
+        <v>-200.84</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>49909.538139</v>
+        <v>49909.538138999997</v>
       </c>
       <c r="Q15" s="1">
         <v>13.863761</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.420000</v>
+        <v>1316.42</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.851000</v>
+        <v>-182.851</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>49920.034972</v>
+        <v>49920.034972000001</v>
       </c>
       <c r="V15" s="1">
         <v>13.866676</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.574000</v>
+        <v>-169.57400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>49930.535280</v>
+        <v>49930.535279999996</v>
       </c>
       <c r="AA15" s="1">
         <v>13.869593</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.430000</v>
+        <v>1346.43</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.839000</v>
+        <v>-167.839</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>49941.366417</v>
+        <v>49941.366416999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.872602</v>
+        <v>13.872602000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.774000</v>
+        <v>-177.774</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49951.903923</v>
+        <v>49951.903922999998</v>
       </c>
       <c r="AK15" s="1">
         <v>13.875529</v>
       </c>
       <c r="AL15" s="1">
-        <v>1379.890000</v>
+        <v>1379.89</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.768000</v>
+        <v>-207.768</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>49962.704836</v>
+        <v>49962.704835999997</v>
       </c>
       <c r="AP15" s="1">
         <v>13.878529</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.638000</v>
+        <v>-251.63800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>49973.732358</v>
+        <v>49973.732358000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.881592</v>
+        <v>13.881591999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.418000</v>
+        <v>-311.41800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>49984.653767</v>
+        <v>49984.653767000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.884626</v>
+        <v>13.884626000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.367000</v>
+        <v>-363.36700000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>49995.914936</v>
+        <v>49995.914936000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.887754</v>
+        <v>13.887753999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1531.130000</v>
+        <v>1531.13</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.449000</v>
+        <v>-610.44899999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>50007.186562</v>
+        <v>50007.186562000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.890885</v>
+        <v>13.890885000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1685.730000</v>
+        <v>1685.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1052.740000</v>
+        <v>-1052.74</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>50017.294493</v>
+        <v>50017.294493000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.893693</v>
+        <v>13.893693000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.210000</v>
+        <v>1980.21</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1818.060000</v>
+        <v>-1818.06</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>50027.868234</v>
+        <v>50027.868234000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.896630</v>
+        <v>13.89663</v>
       </c>
       <c r="BU15" s="1">
-        <v>2367.410000</v>
+        <v>2367.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2697.650000</v>
+        <v>-2697.65</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>50038.777713</v>
+        <v>50038.777713000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.899660</v>
+        <v>13.899660000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.190000</v>
+        <v>2850.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3661.490000</v>
+        <v>-3661.49</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>50051.001120</v>
+        <v>50051.001120000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.903056</v>
+        <v>13.903055999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4272.380000</v>
+        <v>4272.38</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5968.990000</v>
+        <v>-5968.99</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>49879.055043</v>
       </c>
@@ -4079,43 +4495,43 @@
         <v>13.855293</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.320000</v>
+        <v>1245.32</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.806000</v>
+        <v>-302.80599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>49889.466533</v>
+        <v>49889.466532999999</v>
       </c>
       <c r="G16" s="1">
-        <v>13.858185</v>
+        <v>13.858185000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.283000</v>
+        <v>-261.28300000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>49899.654856</v>
+        <v>49899.654856000001</v>
       </c>
       <c r="L16" s="1">
         <v>13.861015</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.460000</v>
+        <v>1304.46</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.667000</v>
+        <v>-200.667</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>49909.882889</v>
@@ -4124,163 +4540,163 @@
         <v>13.863856</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.390000</v>
+        <v>1316.39</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.029000</v>
+        <v>-183.029</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>49920.376717</v>
+        <v>49920.376716999999</v>
       </c>
       <c r="V16" s="1">
         <v>13.866771</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.370000</v>
+        <v>1329.37</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.726000</v>
+        <v>-169.726</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>49931.231663</v>
+        <v>49931.231662999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.869787</v>
+        <v>13.869787000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.926000</v>
+        <v>-167.92599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>49941.712127</v>
+        <v>49941.712126999999</v>
       </c>
       <c r="AF16" s="1">
         <v>13.872698</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.190000</v>
+        <v>1359.19</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.732000</v>
+        <v>-177.732</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>49952.250626</v>
+        <v>49952.250626000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.875625</v>
+        <v>13.875624999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1379.950000</v>
+        <v>1379.95</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.758000</v>
+        <v>-207.75800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>49963.085236</v>
+        <v>49963.085235999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.878635</v>
+        <v>13.878634999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.610000</v>
+        <v>1401.61</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.617000</v>
+        <v>-251.61699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>49974.408900</v>
+        <v>49974.408900000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.881780</v>
+        <v>13.881779999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.240000</v>
+        <v>1426.24</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.427000</v>
+        <v>-311.42700000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>49985.312982</v>
+        <v>49985.312982000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.884809</v>
+        <v>13.884809000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.400000</v>
+        <v>-363.4</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>49996.358855</v>
+        <v>49996.358854999999</v>
       </c>
       <c r="BE16" s="1">
         <v>13.887877</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.170000</v>
+        <v>1531.17</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.439000</v>
+        <v>-610.43899999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>50007.298122</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.890916</v>
+        <v>13.890916000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1685.790000</v>
+        <v>1685.79</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1052.670000</v>
+        <v>-1052.67</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>50017.718075</v>
+        <v>50017.718074999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.893811</v>
+        <v>13.893810999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.040000</v>
+        <v>1980.04</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1817.900000</v>
+        <v>-1817.9</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>50028.302205</v>
@@ -4289,180 +4705,180 @@
         <v>13.896751</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.000000</v>
+        <v>2368</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2697.940000</v>
+        <v>-2697.94</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>50039.226591</v>
+        <v>50039.226590999999</v>
       </c>
       <c r="BY16" s="1">
         <v>13.899785</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.200000</v>
+        <v>2850.2</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3662.050000</v>
+        <v>-3662.05</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>50051.539310</v>
+        <v>50051.53931</v>
       </c>
       <c r="CD16" s="1">
         <v>13.903205</v>
       </c>
       <c r="CE16" s="1">
-        <v>4252.810000</v>
+        <v>4252.8100000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5973.390000</v>
+        <v>-5973.39</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>49879.393810</v>
+        <v>49879.393810000001</v>
       </c>
       <c r="B17" s="1">
         <v>13.855387</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.460000</v>
+        <v>1245.46</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.055000</v>
+        <v>-303.05500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>49889.809764</v>
+        <v>49889.809763999998</v>
       </c>
       <c r="G17" s="1">
-        <v>13.858280</v>
+        <v>13.858280000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.320000</v>
+        <v>-262.32</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>49899.999576</v>
+        <v>49899.999576000002</v>
       </c>
       <c r="L17" s="1">
-        <v>13.861111</v>
+        <v>13.861110999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.410000</v>
+        <v>-200.41</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>49910.582218</v>
+        <v>49910.582218000003</v>
       </c>
       <c r="Q17" s="1">
         <v>13.864051</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.330000</v>
+        <v>1316.33</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.023000</v>
+        <v>-183.023</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>49921.065200</v>
+        <v>49921.065199999997</v>
       </c>
       <c r="V17" s="1">
         <v>13.866963</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.310000</v>
+        <v>1329.31</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.669000</v>
+        <v>-169.66900000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>49931.579854</v>
+        <v>49931.579854000003</v>
       </c>
       <c r="AA17" s="1">
         <v>13.869883</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.370000</v>
+        <v>1346.37</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.907000</v>
+        <v>-167.90700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>49942.051887</v>
+        <v>49942.051887000001</v>
       </c>
       <c r="AF17" s="1">
         <v>13.872792</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.330000</v>
+        <v>1359.33</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.740000</v>
+        <v>-177.74</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>49952.600833</v>
+        <v>49952.600832999997</v>
       </c>
       <c r="AK17" s="1">
         <v>13.875722</v>
       </c>
       <c r="AL17" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.760000</v>
+        <v>-207.76</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>49963.749875</v>
+        <v>49963.749875000001</v>
       </c>
       <c r="AP17" s="1">
         <v>13.878819</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.613000</v>
+        <v>-251.613</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>49974.827524</v>
@@ -4471,73 +4887,73 @@
         <v>13.881897</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.190000</v>
+        <v>1426.19</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.439000</v>
+        <v>-311.43900000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>49985.762857</v>
+        <v>49985.762857000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.884934</v>
+        <v>13.884933999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.570000</v>
+        <v>1445.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.328000</v>
+        <v>-363.32799999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>49996.721432</v>
+        <v>49996.721431999998</v>
       </c>
       <c r="BE17" s="1">
         <v>13.887978</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.130000</v>
+        <v>1531.13</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.439000</v>
+        <v>-610.43899999999996</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>50007.660724</v>
+        <v>50007.660724000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>13.891017</v>
       </c>
       <c r="BK17" s="1">
-        <v>1685.780000</v>
+        <v>1685.78</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1052.680000</v>
+        <v>-1052.68</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>50018.115371</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.893921</v>
+        <v>13.893921000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.190000</v>
+        <v>1980.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1817.860000</v>
+        <v>-1817.86</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>50028.726316</v>
@@ -4546,46 +4962,46 @@
         <v>13.896868</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.180000</v>
+        <v>2368.1799999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2697.690000</v>
+        <v>-2697.69</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>50039.660095</v>
+        <v>50039.660094999999</v>
       </c>
       <c r="BY17" s="1">
         <v>13.899906</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.970000</v>
+        <v>2849.97</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3661.710000</v>
+        <v>-3661.71</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>50052.079950</v>
+        <v>50052.079949999999</v>
       </c>
       <c r="CD17" s="1">
         <v>13.903356</v>
       </c>
       <c r="CE17" s="1">
-        <v>4276.360000</v>
+        <v>4276.3599999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5979.470000</v>
+        <v>-5979.47</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>49879.739491</v>
       </c>
@@ -4593,300 +5009,300 @@
         <v>13.855483</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-302.968000</v>
+        <v>-302.96800000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>49890.498243</v>
+        <v>49890.498243000002</v>
       </c>
       <c r="G18" s="1">
-        <v>13.858472</v>
+        <v>13.858472000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.140000</v>
+        <v>1270.1400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.997000</v>
+        <v>-261.99700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>49900.691527</v>
+        <v>49900.691527000003</v>
       </c>
       <c r="L18" s="1">
-        <v>13.861303</v>
+        <v>13.861302999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.720000</v>
+        <v>1304.72</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.864000</v>
+        <v>-200.864</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>49910.929448</v>
+        <v>49910.929448000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.864147</v>
+        <v>13.864147000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.320000</v>
+        <v>1316.32</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.939000</v>
+        <v>-182.93899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>49921.412362</v>
+        <v>49921.412362000003</v>
       </c>
       <c r="V18" s="1">
-        <v>13.867059</v>
+        <v>13.867058999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.890000</v>
+        <v>-169.89</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>49931.927549</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.869980</v>
+        <v>13.86998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.440000</v>
+        <v>1346.44</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.844000</v>
+        <v>-167.84399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>49942.701182</v>
+        <v>49942.701181999997</v>
       </c>
       <c r="AF18" s="1">
         <v>13.872973</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.947000</v>
+        <v>-177.947</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>49953.248610</v>
+        <v>49953.248610000002</v>
       </c>
       <c r="AK18" s="1">
         <v>13.875902</v>
       </c>
       <c r="AL18" s="1">
-        <v>1379.960000</v>
+        <v>1379.96</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.774000</v>
+        <v>-207.774</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>49964.165037</v>
+        <v>49964.165036999999</v>
       </c>
       <c r="AP18" s="1">
         <v>13.878935</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.600000</v>
+        <v>1401.6</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.578000</v>
+        <v>-251.578</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>49975.218404</v>
+        <v>49975.218403999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.882005</v>
+        <v>13.882004999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.180000</v>
+        <v>1426.18</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.445000</v>
+        <v>-311.44499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>49986.123909</v>
+        <v>49986.123909000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.885034</v>
+        <v>13.885033999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.371000</v>
+        <v>-363.37099999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>49997.081031</v>
+        <v>49997.081031000002</v>
       </c>
       <c r="BE18" s="1">
         <v>13.888078</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.130000</v>
+        <v>1531.13</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.454000</v>
+        <v>-610.45399999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>50008.085768</v>
+        <v>50008.085767999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.891135</v>
       </c>
       <c r="BK18" s="1">
-        <v>1685.680000</v>
+        <v>1685.68</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1052.630000</v>
+        <v>-1052.6300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>50018.534526</v>
+        <v>50018.534526000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.894037</v>
+        <v>13.894037000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.120000</v>
+        <v>1980.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1817.880000</v>
+        <v>-1817.88</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>50029.140258</v>
+        <v>50029.140257999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>13.896983</v>
+        <v>13.896983000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.600000</v>
+        <v>2368.6</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2697.710000</v>
+        <v>-2697.71</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>50040.079214</v>
+        <v>50040.079213999998</v>
       </c>
       <c r="BY18" s="1">
         <v>13.900022</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.940000</v>
+        <v>2849.94</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3662.050000</v>
+        <v>-3662.05</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>50052.618573</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.903505</v>
+        <v>13.903504999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4261.350000</v>
+        <v>4261.3500000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5965.340000</v>
+        <v>-5965.34</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>49880.420227</v>
+        <v>49880.420227000002</v>
       </c>
       <c r="B19" s="1">
         <v>13.855672</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.520000</v>
+        <v>1245.52</v>
       </c>
       <c r="D19" s="1">
-        <v>-302.977000</v>
+        <v>-302.97699999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>49890.841974</v>
+        <v>49890.841974000003</v>
       </c>
       <c r="G19" s="1">
-        <v>13.858567</v>
+        <v>13.858567000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.240000</v>
+        <v>1270.24</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.087000</v>
+        <v>-262.08699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>49901.038694</v>
+        <v>49901.038694000003</v>
       </c>
       <c r="L19" s="1">
-        <v>13.861400</v>
+        <v>13.8614</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.534000</v>
+        <v>-200.53399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>49911.274136</v>
@@ -4895,315 +5311,315 @@
         <v>13.864243</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.320000</v>
+        <v>1316.32</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.867000</v>
+        <v>-182.86699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49921.751626</v>
+        <v>49921.751625999997</v>
       </c>
       <c r="V19" s="1">
         <v>13.867153</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.280000</v>
+        <v>1329.28</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.618000</v>
+        <v>-169.61799999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>49932.583292</v>
+        <v>49932.583292000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>13.870162</v>
+        <v>13.870162000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.915000</v>
+        <v>-167.91499999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>49943.081409</v>
+        <v>49943.081408999999</v>
       </c>
       <c r="AF19" s="1">
         <v>13.873078</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.620000</v>
+        <v>1359.62</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.718000</v>
+        <v>-177.71799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>49953.642897</v>
+        <v>49953.642896999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.876012</v>
+        <v>13.876011999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1379.900000</v>
+        <v>1379.9</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.752000</v>
+        <v>-207.75200000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>49964.553890</v>
+        <v>49964.553890000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.879043</v>
+        <v>13.879042999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.603000</v>
+        <v>-251.60300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>49975.582931</v>
+        <v>49975.582930999997</v>
       </c>
       <c r="AU19" s="1">
         <v>13.882106</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.442000</v>
+        <v>-311.44200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>49986.482053</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.885134</v>
+        <v>13.885134000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.367000</v>
+        <v>-363.36700000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>49997.498663</v>
+        <v>49997.498662999998</v>
       </c>
       <c r="BE19" s="1">
         <v>13.888194</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.100000</v>
+        <v>1531.1</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.436000</v>
+        <v>-610.43600000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>50008.410648</v>
+        <v>50008.410647999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.891225</v>
       </c>
       <c r="BK19" s="1">
-        <v>1685.780000</v>
+        <v>1685.78</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1052.590000</v>
+        <v>-1052.5899999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>50018.934303</v>
+        <v>50018.934303000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.894148</v>
+        <v>13.894147999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.070000</v>
+        <v>1980.07</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1817.980000</v>
+        <v>-1817.98</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>50029.569519</v>
+        <v>50029.569518999997</v>
       </c>
       <c r="BT19" s="1">
         <v>13.897103</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.030000</v>
+        <v>2369.0300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2697.850000</v>
+        <v>-2697.85</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>50040.522640</v>
+        <v>50040.522640000003</v>
       </c>
       <c r="BY19" s="1">
         <v>13.900145</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.420000</v>
+        <v>2850.42</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3662.020000</v>
+        <v>-3662.02</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>50053.159745</v>
+        <v>50053.159744999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.903655</v>
+        <v>13.903655000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4261.030000</v>
+        <v>4261.03</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5983.780000</v>
+        <v>-5983.78</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>49880.766209</v>
+        <v>49880.766209000001</v>
       </c>
       <c r="B20" s="1">
-        <v>13.855768</v>
+        <v>13.855767999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.460000</v>
+        <v>1245.46</v>
       </c>
       <c r="D20" s="1">
-        <v>-302.668000</v>
+        <v>-302.66800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>49891.186162</v>
+        <v>49891.186161999998</v>
       </c>
       <c r="G20" s="1">
         <v>13.858663</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.252000</v>
+        <v>-261.25200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>49901.383945</v>
+        <v>49901.383945000001</v>
       </c>
       <c r="L20" s="1">
-        <v>13.861496</v>
+        <v>13.861496000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.682000</v>
+        <v>-200.68199999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>49911.938781</v>
+        <v>49911.938780999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.864427</v>
+        <v>13.864426999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.380000</v>
+        <v>1316.38</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.861000</v>
+        <v>-182.86099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>49922.452473</v>
+        <v>49922.452472999998</v>
       </c>
       <c r="V20" s="1">
         <v>13.867348</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.765000</v>
+        <v>-169.76499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>49932.973643</v>
+        <v>49932.973642999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.870270</v>
+        <v>13.87027</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.290000</v>
+        <v>1346.29</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.909000</v>
+        <v>-167.90899999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>49943.424815</v>
+        <v>49943.424814999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.873174</v>
+        <v>13.873174000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.861000</v>
+        <v>-177.86099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>49953.992111</v>
@@ -5212,255 +5628,255 @@
         <v>13.876109</v>
       </c>
       <c r="AL20" s="1">
-        <v>1379.940000</v>
+        <v>1379.94</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.741000</v>
+        <v>-207.74100000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>49964.914482</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.879143</v>
+        <v>13.879142999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.577000</v>
+        <v>-251.577</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>49975.998084</v>
+        <v>49975.998083999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.882222</v>
+        <v>13.882222000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.200000</v>
+        <v>1426.2</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.400000</v>
+        <v>-311.39999999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>49986.894035</v>
+        <v>49986.894034999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.885248</v>
+        <v>13.885248000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.360000</v>
+        <v>-363.36</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>49997.803703</v>
+        <v>49997.803702999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.888279</v>
+        <v>13.888279000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1531.160000</v>
+        <v>1531.16</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.417000</v>
+        <v>-610.41700000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>50008.785163</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.891329</v>
+        <v>13.891329000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1685.780000</v>
+        <v>1685.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1052.610000</v>
+        <v>-1052.6099999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>50019.352426</v>
+        <v>50019.352425999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.894265</v>
+        <v>13.894265000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.160000</v>
+        <v>1980.16</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1817.970000</v>
+        <v>-1817.97</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>50029.999019</v>
+        <v>50029.999019000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.897222</v>
+        <v>13.897221999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.960000</v>
+        <v>2368.96</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2698.550000</v>
+        <v>-2698.55</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>50041.278083</v>
+        <v>50041.278082999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.900355</v>
+        <v>13.900354999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.170000</v>
+        <v>2850.17</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3661.540000</v>
+        <v>-3661.54</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>50053.702863</v>
+        <v>50053.702862999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.903806</v>
+        <v>13.903805999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4274.090000</v>
+        <v>4274.09</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5970.440000</v>
+        <v>-5970.44</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>49881.106464</v>
+        <v>49881.106463999997</v>
       </c>
       <c r="B21" s="1">
-        <v>13.855863</v>
+        <v>13.855862999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.107000</v>
+        <v>-303.10700000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>49891.837409</v>
       </c>
       <c r="G21" s="1">
-        <v>13.858844</v>
+        <v>13.858843999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.440000</v>
+        <v>1269.44</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.297000</v>
+        <v>-261.29700000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>49902.036181</v>
+        <v>49902.036181000003</v>
       </c>
       <c r="L21" s="1">
         <v>13.861677</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.200000</v>
+        <v>1304.2</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.488000</v>
+        <v>-200.488</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>49912.324198</v>
+        <v>49912.324198000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.864534</v>
+        <v>13.864534000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.400000</v>
+        <v>1316.4</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.919000</v>
+        <v>-182.91900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>49922.784830</v>
+        <v>49922.784829999997</v>
       </c>
       <c r="V21" s="1">
-        <v>13.867440</v>
+        <v>13.86744</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.709000</v>
+        <v>-169.709</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>49933.320347</v>
+        <v>49933.320347000001</v>
       </c>
       <c r="AA21" s="1">
         <v>13.870367</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.440000</v>
+        <v>1346.44</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.031000</v>
+        <v>-168.03100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>49943.769565</v>
+        <v>49943.769565000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.873269</v>
+        <v>13.873269000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.410000</v>
+        <v>1359.41</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.574000</v>
+        <v>-177.57400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>49954.342783</v>
@@ -5469,118 +5885,118 @@
         <v>13.876206</v>
       </c>
       <c r="AL21" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.796000</v>
+        <v>-207.79599999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>49965.328640</v>
+        <v>49965.32864</v>
       </c>
       <c r="AP21" s="1">
         <v>13.879258</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.614000</v>
+        <v>-251.614</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>49976.313538</v>
+        <v>49976.313538000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.882309</v>
+        <v>13.882308999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.421000</v>
+        <v>-311.42099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>49987.201715</v>
+        <v>49987.201715000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.885334</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.356000</v>
+        <v>-363.35599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>49998.164293</v>
+        <v>49998.164293000002</v>
       </c>
       <c r="BE21" s="1">
         <v>13.888379</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.140000</v>
+        <v>1531.14</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.410000</v>
+        <v>-610.41</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>50009.184438</v>
+        <v>50009.184437999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.891440</v>
+        <v>13.891439999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1685.720000</v>
+        <v>1685.72</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1052.660000</v>
+        <v>-1052.6600000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>50019.753160</v>
+        <v>50019.75316</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.894376</v>
+        <v>13.894375999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1817.820000</v>
+        <v>-1817.82</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>50030.413180</v>
+        <v>50030.413180000003</v>
       </c>
       <c r="BT21" s="1">
         <v>13.897337</v>
       </c>
       <c r="BU21" s="1">
-        <v>2369.370000</v>
+        <v>2369.37</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2698.380000</v>
+        <v>-2698.38</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>50041.386669</v>
@@ -5589,150 +6005,150 @@
         <v>13.900385</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.320000</v>
+        <v>2849.32</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3661.780000</v>
+        <v>-3661.78</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>50054.239500</v>
+        <v>50054.239500000003</v>
       </c>
       <c r="CD21" s="1">
         <v>13.903955</v>
       </c>
       <c r="CE21" s="1">
-        <v>4253.180000</v>
+        <v>4253.18</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5968.940000</v>
+        <v>-5968.94</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>49881.757246</v>
+        <v>49881.757246000001</v>
       </c>
       <c r="B22" s="1">
-        <v>13.856044</v>
+        <v>13.856044000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.230000</v>
+        <v>1245.23</v>
       </c>
       <c r="D22" s="1">
-        <v>-302.652000</v>
+        <v>-302.65199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>49892.220818</v>
+        <v>49892.220818000002</v>
       </c>
       <c r="G22" s="1">
-        <v>13.858950</v>
+        <v>13.85895</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.098000</v>
+        <v>-262.09800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>49902.421076</v>
+        <v>49902.421075999999</v>
       </c>
       <c r="L22" s="1">
         <v>13.861784</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.480000</v>
+        <v>1304.48</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.681000</v>
+        <v>-200.68100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>49912.674374</v>
+        <v>49912.674374000002</v>
       </c>
       <c r="Q22" s="1">
         <v>13.864632</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.400000</v>
+        <v>1316.4</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.928000</v>
+        <v>-182.928</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>49923.126041</v>
+        <v>49923.126041000003</v>
       </c>
       <c r="V22" s="1">
         <v>13.867535</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.450000</v>
+        <v>1329.45</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.782000</v>
+        <v>-169.78200000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>49933.670986</v>
+        <v>49933.670985999997</v>
       </c>
       <c r="AA22" s="1">
         <v>13.870464</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.370000</v>
+        <v>1346.37</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.874000</v>
+        <v>-167.874</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>49944.186172</v>
+        <v>49944.186172000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.873385</v>
+        <v>13.873385000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.320000</v>
+        <v>1359.32</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.747000</v>
+        <v>-177.74700000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>49954.768320</v>
+        <v>49954.768320000003</v>
       </c>
       <c r="AK22" s="1">
         <v>13.876325</v>
       </c>
       <c r="AL22" s="1">
-        <v>1379.930000</v>
+        <v>1379.93</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.750000</v>
+        <v>-207.75</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>49965.634177</v>
@@ -5741,43 +6157,43 @@
         <v>13.879343</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.560000</v>
+        <v>1401.56</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.563000</v>
+        <v>-251.56299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>49976.676150</v>
+        <v>49976.676149999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.882410</v>
+        <v>13.88241</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.450000</v>
+        <v>-311.45</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>49987.558835</v>
+        <v>49987.558835000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.885433</v>
+        <v>13.885433000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.382000</v>
+        <v>-363.38200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>49998.522932</v>
@@ -5786,150 +6202,150 @@
         <v>13.888479</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.120000</v>
+        <v>1531.12</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.381000</v>
+        <v>-610.38099999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>50009.934359</v>
+        <v>50009.934358999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.891648</v>
       </c>
       <c r="BK22" s="1">
-        <v>1685.740000</v>
+        <v>1685.74</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1052.600000</v>
+        <v>-1052.5999999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>50020.172776</v>
+        <v>50020.172775999999</v>
       </c>
       <c r="BO22" s="1">
         <v>13.894492</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.970000</v>
+        <v>1979.97</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1817.840000</v>
+        <v>-1817.84</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>50030.843738</v>
+        <v>50030.843738000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.897457</v>
+        <v>13.897456999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2369.580000</v>
+        <v>2369.58</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2698.870000</v>
+        <v>-2698.87</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>50041.813264</v>
+        <v>50041.813263999997</v>
       </c>
       <c r="BY22" s="1">
         <v>13.900504</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.530000</v>
+        <v>2850.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3661.800000</v>
+        <v>-3661.8</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>50054.780666</v>
+        <v>50054.780665999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.904106</v>
+        <v>13.904106000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4274.140000</v>
+        <v>4274.1400000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5981.640000</v>
+        <v>-5981.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>49882.130208</v>
+        <v>49882.130208000002</v>
       </c>
       <c r="B23" s="1">
         <v>13.856147</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.510000</v>
+        <v>1245.51</v>
       </c>
       <c r="D23" s="1">
-        <v>-302.869000</v>
+        <v>-302.86900000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>49892.565568</v>
+        <v>49892.565567999998</v>
       </c>
       <c r="G23" s="1">
-        <v>13.859046</v>
+        <v>13.859045999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.568000</v>
+        <v>-261.56799999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>49902.769235</v>
       </c>
       <c r="L23" s="1">
-        <v>13.861880</v>
+        <v>13.861879999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.790000</v>
+        <v>1304.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.564000</v>
+        <v>-200.56399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>49913.023064</v>
+        <v>49913.023064000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.864729</v>
+        <v>13.864729000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.340000</v>
+        <v>1316.34</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.915000</v>
+        <v>-182.91499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>49923.543177</v>
@@ -5938,240 +6354,240 @@
         <v>13.867651</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.350000</v>
+        <v>1329.35</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.783000</v>
+        <v>-169.78299999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>49934.094074</v>
+        <v>49934.094074000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.870582</v>
+        <v>13.870582000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.600000</v>
+        <v>1346.6</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.939000</v>
+        <v>-167.93899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>49944.483773</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.873468</v>
+        <v>13.873468000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.460000</v>
+        <v>1359.46</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.756000</v>
+        <v>-177.756</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>49955.051075</v>
+        <v>49955.051075000003</v>
       </c>
       <c r="AK23" s="1">
         <v>13.876403</v>
       </c>
       <c r="AL23" s="1">
-        <v>1379.920000</v>
+        <v>1379.92</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.752000</v>
+        <v>-207.75200000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>49965.991328</v>
+        <v>49965.991327999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.879442</v>
+        <v>13.879441999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.610000</v>
+        <v>1401.61</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.572000</v>
+        <v>-251.572</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>49977.040674</v>
+        <v>49977.040674000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.882511</v>
+        <v>13.882510999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.190000</v>
+        <v>1426.19</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.412000</v>
+        <v>-311.41199999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>49987.917941</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.885533</v>
+        <v>13.885533000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.374000</v>
+        <v>-363.37400000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>49999.247557</v>
+        <v>49999.247557000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.888680</v>
+        <v>13.888680000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1531.140000</v>
+        <v>1531.14</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.393000</v>
+        <v>-610.39300000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>50010.337605</v>
+        <v>50010.337605000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.891760</v>
+        <v>13.89176</v>
       </c>
       <c r="BK23" s="1">
-        <v>1685.690000</v>
+        <v>1685.69</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1052.570000</v>
+        <v>-1052.57</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>50020.567626</v>
+        <v>50020.567625999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.894602</v>
+        <v>13.894602000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.110000</v>
+        <v>1980.11</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1817.690000</v>
+        <v>-1817.69</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>50031.269273</v>
+        <v>50031.269272999998</v>
       </c>
       <c r="BT23" s="1">
         <v>13.897575</v>
       </c>
       <c r="BU23" s="1">
-        <v>2369.850000</v>
+        <v>2369.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2699.280000</v>
+        <v>-2699.28</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>50042.535404</v>
+        <v>50042.535404000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.900704</v>
+        <v>13.900703999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.130000</v>
+        <v>2850.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3661.480000</v>
+        <v>-3661.48</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>50055.628829</v>
+        <v>50055.628829000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.904341</v>
+        <v>13.904341000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4253.480000</v>
+        <v>4253.4799999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5978.780000</v>
+        <v>-5978.78</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>49882.474928</v>
+        <v>49882.474928000003</v>
       </c>
       <c r="B24" s="1">
-        <v>13.856243</v>
+        <v>13.856242999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.932000</v>
+        <v>-302.93200000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>49892.909264</v>
+        <v>49892.909264000002</v>
       </c>
       <c r="G24" s="1">
-        <v>13.859141</v>
+        <v>13.859140999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.621000</v>
+        <v>-261.62099999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>49903.113956</v>
+        <v>49903.113956000001</v>
       </c>
       <c r="L24" s="1">
         <v>13.861976</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.670000</v>
+        <v>-200.67</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>49913.452566</v>
@@ -6180,13 +6596,13 @@
         <v>13.864848</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.300000</v>
+        <v>1316.3</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.879000</v>
+        <v>-182.87899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>49923.840807</v>
@@ -6195,390 +6611,390 @@
         <v>13.867734</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.240000</v>
+        <v>1329.24</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.923000</v>
+        <v>-169.923</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>49934.372363</v>
+        <v>49934.372363000002</v>
       </c>
       <c r="AA24" s="1">
         <v>13.870659</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.510000</v>
+        <v>1346.51</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.931000</v>
+        <v>-167.93100000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>49944.827997</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.873563</v>
+        <v>13.873563000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.280000</v>
+        <v>1359.28</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.644000</v>
+        <v>-177.64400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>49955.399727</v>
+        <v>49955.399727000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.876500</v>
+        <v>13.8765</v>
       </c>
       <c r="AL24" s="1">
-        <v>1379.920000</v>
+        <v>1379.92</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.776000</v>
+        <v>-207.77600000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>49966.357343</v>
+        <v>49966.357343000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.879544</v>
+        <v>13.879543999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.590000</v>
+        <v>1401.59</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.614000</v>
+        <v>-251.614</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>49977.769297</v>
+        <v>49977.769296999999</v>
       </c>
       <c r="AU24" s="1">
         <v>13.882714</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.220000</v>
+        <v>1426.22</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.426000</v>
+        <v>-311.42599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>49988.633666</v>
+        <v>49988.633666000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.885732</v>
+        <v>13.885732000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.296000</v>
+        <v>-363.29599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>49999.610133</v>
+        <v>49999.610133000002</v>
       </c>
       <c r="BE24" s="1">
         <v>13.888781</v>
       </c>
       <c r="BF24" s="1">
-        <v>1531.120000</v>
+        <v>1531.12</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.408000</v>
+        <v>-610.40800000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>50010.711588</v>
+        <v>50010.711587999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>13.891864</v>
       </c>
       <c r="BK24" s="1">
-        <v>1685.790000</v>
+        <v>1685.79</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1052.540000</v>
+        <v>-1052.54</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>50020.990681</v>
+        <v>50020.990681000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.894720</v>
+        <v>13.89472</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.190000</v>
+        <v>1980.19</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1817.780000</v>
+        <v>-1817.78</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>50031.990952</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.897775</v>
+        <v>13.897774999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2369.430000</v>
+        <v>2369.4299999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2699.940000</v>
+        <v>-2699.94</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>50042.678250</v>
+        <v>50042.678249999997</v>
       </c>
       <c r="BY24" s="1">
         <v>13.900744</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.200000</v>
+        <v>2849.2</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3661.470000</v>
+        <v>-3661.47</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>50055.860920</v>
+        <v>50055.860919999999</v>
       </c>
       <c r="CD24" s="1">
         <v>13.904406</v>
       </c>
       <c r="CE24" s="1">
-        <v>4254.270000</v>
+        <v>4254.2700000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5975.370000</v>
+        <v>-5975.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>49882.816175</v>
       </c>
       <c r="B25" s="1">
-        <v>13.856338</v>
+        <v>13.856337999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-302.807000</v>
+        <v>-302.80700000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>49893.319983</v>
+        <v>49893.319983000001</v>
       </c>
       <c r="G25" s="1">
         <v>13.859256</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.486000</v>
+        <v>-261.48599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>49903.524674</v>
       </c>
       <c r="L25" s="1">
-        <v>13.862090</v>
+        <v>13.86209</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.630000</v>
+        <v>1304.6300000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.512000</v>
+        <v>-200.512</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>49913.722425</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.864923</v>
+        <v>13.864922999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.280000</v>
+        <v>1316.28</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.909000</v>
+        <v>-182.90899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>49924.185992</v>
+        <v>49924.185991999999</v>
       </c>
       <c r="V25" s="1">
         <v>13.867829</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.230000</v>
+        <v>1329.23</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.817000</v>
+        <v>-169.81700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>49934.722047</v>
+        <v>49934.722047000003</v>
       </c>
       <c r="AA25" s="1">
         <v>13.870756</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.350000</v>
+        <v>1346.35</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.775000</v>
+        <v>-167.77500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>49945.170763</v>
+        <v>49945.170763000002</v>
       </c>
       <c r="AF25" s="1">
         <v>13.873659</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.410000</v>
+        <v>1359.41</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.679000</v>
+        <v>-177.679</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>49955.742958</v>
+        <v>49955.742958000003</v>
       </c>
       <c r="AK25" s="1">
         <v>13.876595</v>
       </c>
       <c r="AL25" s="1">
-        <v>1379.890000</v>
+        <v>1379.89</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.779000</v>
+        <v>-207.779</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>49967.074062</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.879743</v>
+        <v>13.879742999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.570000</v>
+        <v>1401.57</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.593000</v>
+        <v>-251.59299999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>49978.124928</v>
+        <v>49978.124927999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.882812</v>
+        <v>13.882811999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.210000</v>
+        <v>1426.21</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.439000</v>
+        <v>-311.43900000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>49988.991779</v>
+        <v>49988.991779000004</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.885831</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.580000</v>
+        <v>1445.58</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.360000</v>
+        <v>-363.36</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>49999.972210</v>
+        <v>49999.97221</v>
       </c>
       <c r="BE25" s="1">
         <v>13.888881</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.110000</v>
+        <v>1531.11</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.376000</v>
+        <v>-610.37599999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>50011.393588</v>
+        <v>50011.393587999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.892054</v>
       </c>
       <c r="BK25" s="1">
-        <v>1685.760000</v>
+        <v>1685.76</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1052.550000</v>
+        <v>-1052.55</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>50021.701942</v>
@@ -6587,75 +7003,75 @@
         <v>13.894917</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.040000</v>
+        <v>1980.04</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1817.710000</v>
+        <v>-1817.71</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>50032.112472</v>
+        <v>50032.112472000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.897809</v>
+        <v>13.897809000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2369.730000</v>
+        <v>2369.73</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2700.050000</v>
+        <v>-2700.05</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>50043.097407</v>
+        <v>50043.097407000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.900860</v>
+        <v>13.90086</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.350000</v>
+        <v>2849.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3661.800000</v>
+        <v>-3661.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>50056.382713</v>
+        <v>50056.382712999999</v>
       </c>
       <c r="CD25" s="1">
         <v>13.904551</v>
       </c>
       <c r="CE25" s="1">
-        <v>4265.890000</v>
+        <v>4265.8900000000003</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5985.290000</v>
+        <v>-5985.29</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>49883.241277</v>
+        <v>49883.241277000001</v>
       </c>
       <c r="B26" s="1">
         <v>13.856456</v>
       </c>
       <c r="C26" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-302.883000</v>
+        <v>-302.88299999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>49893.614575</v>
@@ -6664,43 +7080,43 @@
         <v>13.859337</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.010000</v>
+        <v>1270.01</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.086000</v>
+        <v>-262.08600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>49903.825714</v>
+        <v>49903.825713999999</v>
       </c>
       <c r="L26" s="1">
         <v>13.862174</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.650000</v>
+        <v>1304.6500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.809000</v>
+        <v>-200.809</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>49914.070085</v>
+        <v>49914.070084999999</v>
       </c>
       <c r="Q26" s="1">
         <v>13.865019</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.330000</v>
+        <v>1316.33</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.907000</v>
+        <v>-182.90700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>49924.528757</v>
@@ -6709,195 +7125,196 @@
         <v>13.867925</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.260000</v>
+        <v>1329.26</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.805000</v>
+        <v>-169.80500000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>49935.070232</v>
+        <v>49935.070231999998</v>
       </c>
       <c r="AA26" s="1">
         <v>13.870853</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.856000</v>
+        <v>-167.85599999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>49945.858186</v>
+        <v>49945.858185999998</v>
       </c>
       <c r="AF26" s="1">
         <v>13.873849</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.669000</v>
+        <v>-177.66900000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>49956.442849</v>
+        <v>49956.442848999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.876790</v>
+        <v>13.87679</v>
       </c>
       <c r="AL26" s="1">
-        <v>1379.940000</v>
+        <v>1379.94</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.748000</v>
+        <v>-207.74799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>49967.436142</v>
+        <v>49967.436141999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.879843</v>
+        <v>13.879842999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.580000</v>
+        <v>1401.58</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.579000</v>
+        <v>-251.57900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>49978.500399</v>
+        <v>49978.500398999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.882917</v>
+        <v>13.882917000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.250000</v>
+        <v>1426.25</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.430000</v>
+        <v>-311.43</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>49989.351378</v>
+        <v>49989.351377999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.885931</v>
+        <v>13.885930999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.323000</v>
+        <v>-363.32299999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>50000.646275</v>
+        <v>50000.646274999999</v>
       </c>
       <c r="BE26" s="1">
         <v>13.889068</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.120000</v>
+        <v>1531.12</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.387000</v>
+        <v>-610.38699999999994</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>50011.502707</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.892084</v>
+        <v>13.892084000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1685.730000</v>
+        <v>1685.73</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1052.520000</v>
+        <v>-1052.52</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>50021.816022</v>
+        <v>50021.816021999999</v>
       </c>
       <c r="BO26" s="1">
         <v>13.894949</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.120000</v>
+        <v>1980.12</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1817.680000</v>
+        <v>-1817.68</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>50032.553452</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.897932</v>
+        <v>13.897932000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2369.800000</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2700.540000</v>
+        <v>-2700.54</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>50043.522938</v>
+        <v>50043.522938000002</v>
       </c>
       <c r="BY26" s="1">
         <v>13.900979</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.730000</v>
+        <v>2849.73</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3661.910000</v>
+        <v>-3661.91</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>50056.895613</v>
+        <v>50056.895613000001</v>
       </c>
       <c r="CD26" s="1">
         <v>13.904693</v>
       </c>
       <c r="CE26" s="1">
-        <v>4258.930000</v>
+        <v>4258.93</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5984.600000</v>
+        <v>-5984.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>